--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S1/S1_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S1/S1_dampingfactor.xlsx
@@ -14,276 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.54594283521963</t>
-  </si>
-  <si>
-    <t>92.02793017456358</t>
-  </si>
-  <si>
-    <t>92.91371571072318</t>
-  </si>
-  <si>
-    <t>93.87331670822942</t>
-  </si>
-  <si>
-    <t>95.0006801178871</t>
-  </si>
-  <si>
-    <t>95.69409808811304</t>
-  </si>
-  <si>
-    <t>96.53067331670823</t>
-  </si>
-  <si>
-    <t>97.41645885286783</t>
-  </si>
-  <si>
-    <t>98.2284289276808</t>
-  </si>
-  <si>
-    <t>99.04039900249376</t>
-  </si>
-  <si>
-    <t>99.5571072319202</t>
-  </si>
-  <si>
-    <t>100.45343783398646</t>
-  </si>
-  <si>
-    <t>101.18104738154614</t>
-  </si>
-  <si>
-    <t>102.06683291770574</t>
-  </si>
-  <si>
-    <t>103.14453865336658</t>
-  </si>
-  <si>
-    <t>104.50274314214464</t>
-  </si>
-  <si>
-    <t>106.12668329177058</t>
-  </si>
-  <si>
-    <t>107.7506234413965</t>
-  </si>
-  <si>
-    <t>109.37456359102244</t>
-  </si>
-  <si>
-    <t>110.99850374064837</t>
-  </si>
-  <si>
-    <t>112.62244389027431</t>
-  </si>
-  <si>
-    <t>114.24638403990025</t>
-  </si>
-  <si>
-    <t>115.87032418952617</t>
-  </si>
-  <si>
-    <t>116.96701104381901</t>
-  </si>
-  <si>
-    <t>118.38004987531171</t>
-  </si>
-  <si>
-    <t>120.00399002493765</t>
-  </si>
-  <si>
-    <t>121.62793017456359</t>
-  </si>
-  <si>
-    <t>123.25187032418953</t>
-  </si>
-  <si>
-    <t>124.89057356608478</t>
-  </si>
-  <si>
-    <t>126.4997506234414</t>
-  </si>
-  <si>
-    <t>128.12369077306732</t>
-  </si>
-  <si>
-    <t>129.74763092269325</t>
-  </si>
-  <si>
-    <t>131.3715710723192</t>
-  </si>
-  <si>
-    <t>132.84788029925187</t>
-  </si>
-  <si>
-    <t>134.66866167913548</t>
-  </si>
-  <si>
-    <t>136.243391521197</t>
-  </si>
-  <si>
-    <t>137.86733167082292</t>
-  </si>
-  <si>
-    <t>139.49127182044887</t>
-  </si>
-  <si>
-    <t>141.11521197007482</t>
-  </si>
-  <si>
-    <t>142.73915211970075</t>
-  </si>
-  <si>
-    <t>144.36309226932667</t>
-  </si>
-  <si>
-    <t>145.9870324189526</t>
-  </si>
-  <si>
-    <t>147.61097256857855</t>
-  </si>
-  <si>
-    <t>149.01346633416458</t>
-  </si>
-  <si>
-    <t>0.03669334968903335</t>
-  </si>
-  <si>
-    <t>0.04730843102120492</t>
-  </si>
-  <si>
-    <t>0.05690989946758373</t>
-  </si>
-  <si>
-    <t>0.07236757592362779</t>
-  </si>
-  <si>
-    <t>0.09022567951819596</t>
-  </si>
-  <si>
-    <t>0.11562376037161183</t>
-  </si>
-  <si>
-    <t>0.1466625530547553</t>
-  </si>
-  <si>
-    <t>0.18917079634721545</t>
-  </si>
-  <si>
-    <t>0.2285388229110982</t>
-  </si>
-  <si>
-    <t>0.27901462977189495</t>
-  </si>
-  <si>
-    <t>0.34071041078121805</t>
-  </si>
-  <si>
-    <t>0.4241890699848741</t>
-  </si>
-  <si>
-    <t>0.5086173391764329</t>
-  </si>
-  <si>
-    <t>0.6468141913532885</t>
-  </si>
-  <si>
-    <t>0.8243176090135222</t>
-  </si>
-  <si>
-    <t>1.0366833097064696</t>
-  </si>
-  <si>
-    <t>1.2817397719904369</t>
-  </si>
-  <si>
-    <t>1.394743131877401</t>
-  </si>
-  <si>
-    <t>1.356846884735669</t>
-  </si>
-  <si>
-    <t>1.2859717104165003</t>
-  </si>
-  <si>
-    <t>1.1494441166284703</t>
-  </si>
-  <si>
-    <t>1.0669755924326931</t>
-  </si>
-  <si>
-    <t>0.9771789414935799</t>
-  </si>
-  <si>
-    <t>0.9037674607341009</t>
-  </si>
-  <si>
-    <t>0.8579158742598039</t>
-  </si>
-  <si>
-    <t>0.8048918532074365</t>
-  </si>
-  <si>
-    <t>0.750867056181317</t>
-  </si>
-  <si>
-    <t>0.7069232173404156</t>
-  </si>
-  <si>
-    <t>0.6796176941119563</t>
-  </si>
-  <si>
-    <t>0.6113989144484758</t>
-  </si>
-  <si>
-    <t>0.5746303038185413</t>
-  </si>
-  <si>
-    <t>0.5518655731736767</t>
-  </si>
-  <si>
-    <t>0.5387624196607326</t>
-  </si>
-  <si>
-    <t>0.5298073467724425</t>
-  </si>
-  <si>
-    <t>0.5260535966782323</t>
-  </si>
-  <si>
-    <t>0.5122664197349188</t>
-  </si>
-  <si>
-    <t>0.4934009947053879</t>
-  </si>
-  <si>
-    <t>0.4916797336466633</t>
-  </si>
-  <si>
-    <t>0.49156183542373455</t>
-  </si>
-  <si>
-    <t>0.495092843646744</t>
-  </si>
-  <si>
-    <t>0.49835420736233066</t>
-  </si>
-  <si>
-    <t>0.5010436779907833</t>
-  </si>
-  <si>
-    <t>0.5014129023040614</t>
-  </si>
-  <si>
-    <t>0.5072981841973483</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -656,355 +392,355 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="A2">
+        <v>90.54594283521963</v>
+      </c>
+      <c r="B2">
+        <v>0.03669334968903335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="A3">
+        <v>92.02793017456358</v>
+      </c>
+      <c r="B3">
+        <v>0.04730843102120492</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="A4">
+        <v>92.91371571072318</v>
+      </c>
+      <c r="B4">
+        <v>0.05690989946758373</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
+      <c r="A5">
+        <v>93.87331670822942</v>
+      </c>
+      <c r="B5">
+        <v>0.07236757592362779</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
+      <c r="A6">
+        <v>95.0006801178871</v>
+      </c>
+      <c r="B6">
+        <v>0.09022567951819596</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
+      <c r="A7">
+        <v>95.69409808811304</v>
+      </c>
+      <c r="B7">
+        <v>0.1156237603716118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
+      <c r="A8">
+        <v>96.53067331670823</v>
+      </c>
+      <c r="B8">
+        <v>0.1466625530547553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="A9">
+        <v>97.41645885286783</v>
+      </c>
+      <c r="B9">
+        <v>0.1891707963472155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
+      <c r="A10">
+        <v>98.2284289276808</v>
+      </c>
+      <c r="B10">
+        <v>0.2285388229110982</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
+      <c r="A11">
+        <v>99.04039900249376</v>
+      </c>
+      <c r="B11">
+        <v>0.279014629771895</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="A12">
+        <v>99.5571072319202</v>
+      </c>
+      <c r="B12">
+        <v>0.3407104107812181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
+      <c r="A13">
+        <v>100.4534378339865</v>
+      </c>
+      <c r="B13">
+        <v>0.4241890699848741</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
+      <c r="A14">
+        <v>101.1810473815461</v>
+      </c>
+      <c r="B14">
+        <v>0.5086173391764329</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
+      <c r="A15">
+        <v>102.0668329177057</v>
+      </c>
+      <c r="B15">
+        <v>0.6468141913532885</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="A16">
+        <v>103.1445386533666</v>
+      </c>
+      <c r="B16">
+        <v>0.8243176090135222</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
+      <c r="A17">
+        <v>104.5027431421446</v>
+      </c>
+      <c r="B17">
+        <v>1.03668330970647</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="A18">
+        <v>106.1266832917706</v>
+      </c>
+      <c r="B18">
+        <v>1.281739771990437</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
+      <c r="A19">
+        <v>107.7506234413965</v>
+      </c>
+      <c r="B19">
+        <v>1.394743131877401</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
+      <c r="A20">
+        <v>109.3745635910224</v>
+      </c>
+      <c r="B20">
+        <v>1.356846884735669</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
+      <c r="A21">
+        <v>110.9985037406484</v>
+      </c>
+      <c r="B21">
+        <v>1.2859717104165</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
+      <c r="A22">
+        <v>112.6224438902743</v>
+      </c>
+      <c r="B22">
+        <v>1.14944411662847</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
+      <c r="A23">
+        <v>114.2463840399002</v>
+      </c>
+      <c r="B23">
+        <v>1.066975592432693</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
+      <c r="A24">
+        <v>115.8703241895262</v>
+      </c>
+      <c r="B24">
+        <v>0.9771789414935799</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
+      <c r="A25">
+        <v>116.967011043819</v>
+      </c>
+      <c r="B25">
+        <v>0.9037674607341009</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+      <c r="A26">
+        <v>118.3800498753117</v>
+      </c>
+      <c r="B26">
+        <v>0.8579158742598039</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
+      <c r="A27">
+        <v>120.0039900249377</v>
+      </c>
+      <c r="B27">
+        <v>0.8048918532074365</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
+      <c r="A28">
+        <v>121.6279301745636</v>
+      </c>
+      <c r="B28">
+        <v>0.750867056181317</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
+      <c r="A29">
+        <v>123.2518703241895</v>
+      </c>
+      <c r="B29">
+        <v>0.7069232173404156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
+      <c r="A30">
+        <v>124.8905735660848</v>
+      </c>
+      <c r="B30">
+        <v>0.6796176941119563</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
+      <c r="A31">
+        <v>126.4997506234414</v>
+      </c>
+      <c r="B31">
+        <v>0.6113989144484758</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
+      <c r="A32">
+        <v>128.1236907730673</v>
+      </c>
+      <c r="B32">
+        <v>0.5746303038185413</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
+      <c r="A33">
+        <v>129.7476309226932</v>
+      </c>
+      <c r="B33">
+        <v>0.5518655731736767</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
+      <c r="A34">
+        <v>131.3715710723192</v>
+      </c>
+      <c r="B34">
+        <v>0.5387624196607326</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
+      <c r="A35">
+        <v>132.8478802992519</v>
+      </c>
+      <c r="B35">
+        <v>0.5298073467724425</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
+      <c r="A36">
+        <v>134.6686616791355</v>
+      </c>
+      <c r="B36">
+        <v>0.5260535966782323</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
+      <c r="A37">
+        <v>136.243391521197</v>
+      </c>
+      <c r="B37">
+        <v>0.5122664197349188</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
+      <c r="A38">
+        <v>137.8673316708229</v>
+      </c>
+      <c r="B38">
+        <v>0.4934009947053879</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
+      <c r="A39">
+        <v>139.4912718204489</v>
+      </c>
+      <c r="B39">
+        <v>0.4916797336466633</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
+      <c r="A40">
+        <v>141.1152119700748</v>
+      </c>
+      <c r="B40">
+        <v>0.4915618354237345</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
+      <c r="A41">
+        <v>142.7391521197007</v>
+      </c>
+      <c r="B41">
+        <v>0.495092843646744</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
+      <c r="A42">
+        <v>144.3630922693267</v>
+      </c>
+      <c r="B42">
+        <v>0.4983542073623307</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
+      <c r="A43">
+        <v>145.9870324189526</v>
+      </c>
+      <c r="B43">
+        <v>0.5010436779907833</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
+      <c r="A44">
+        <v>147.6109725685785</v>
+      </c>
+      <c r="B44">
+        <v>0.5014129023040614</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
+      <c r="A45">
+        <v>149.0134663341646</v>
+      </c>
+      <c r="B45">
+        <v>0.5072981841973483</v>
       </c>
     </row>
   </sheetData>
